--- a/Lab5_PCB/MotherBoard_9bit_SARADC/Project Outputs for MotherBoard_9bit_SARADC/ChengmingLi+MingjieMa_MotherBoard_9bit_SARADC_BOM.xlsx
+++ b/Lab5_PCB/MotherBoard_9bit_SARADC/Project Outputs for MotherBoard_9bit_SARADC/ChengmingLi+MingjieMa_MotherBoard_9bit_SARADC_BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Chengming_Li\GitHub\ECE266_CMOSCircuitLab\Lab5_PCB\MotherBoard_9bit_SARADC\Project Outputs for MotherBoard_9bit_SARADC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fe40599d2c97df8f/Documents/GitHub/ECE266_CMOSCircuitLab/Lab5_PCB/MotherBoard_9bit_SARADC/Project Outputs for MotherBoard_9bit_SARADC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E26B33-14DF-455F-B298-4E611EEA92B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{B9E26B33-14DF-455F-B298-4E611EEA92B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FFCE42FA-2B01-4DA2-8D7A-94D5B0E42044}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A3CDF23C-DD16-47AA-9219-2478E345551B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{A3CDF23C-DD16-47AA-9219-2478E345551B}"/>
   </bookViews>
   <sheets>
     <sheet name="MotherBoard_9bit_SARADC_BOM" sheetId="1" r:id="rId1"/>
@@ -641,6 +641,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -963,12 +967,14 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" customWidth="1"/>
+    <col min="3" max="6" width="19.7109375" customWidth="1"/>
     <col min="7" max="7" width="136" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
